--- a/2022/aug/算法与数据结构课程大纲.xlsx
+++ b/2022/aug/算法与数据结构课程大纲.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ladmin/repo/algtraining/2022/aug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407AD5A8-F7EC-4716-AD7E-5B060E6579F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4828322-D5ED-864F-A8A2-1BD85505BAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="2000" windowWidth="28420" windowHeight="16960" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>阶段</t>
   </si>
@@ -329,7 +330,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -575,7 +576,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1204,9 +1205,21 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,21 +1232,9 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,7 +1250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1547,26 +1548,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B4:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="62.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" customWidth="1"/>
+    <col min="3" max="3" width="62.3984375" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" customWidth="1"/>
+    <col min="7" max="7" width="21.796875" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1589,11 +1590,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -1608,9 +1609,9 @@
       <c r="F2" s="9"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="38"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
@@ -1623,11 +1624,11 @@
       <c r="F3" s="9"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1646,9 +1647,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -1665,9 +1666,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -1684,9 +1685,9 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
@@ -1703,9 +1704,9 @@
         <v>933</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="37"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
@@ -1722,9 +1723,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="37"/>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
@@ -1741,9 +1742,9 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="37"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="15" t="s">
         <v>26</v>
       </c>
@@ -1758,9 +1759,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="37"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
@@ -1777,9 +1778,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="15" t="s">
         <v>29</v>
       </c>
@@ -1796,9 +1797,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1817,9 +1818,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="36"/>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1836,9 +1837,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="36"/>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1855,9 +1856,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="36"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
@@ -1874,9 +1875,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="36"/>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
@@ -1893,9 +1894,9 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="36"/>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
@@ -1910,11 +1911,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1933,9 +1934,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="13" t="s">
         <v>49</v>
       </c>
@@ -1952,9 +1953,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="14" t="s">
         <v>51</v>
       </c>
@@ -1971,9 +1972,9 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="14" t="s">
         <v>53</v>
       </c>
@@ -1990,9 +1991,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="35"/>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="14" t="s">
         <v>55</v>
       </c>
@@ -2009,9 +2010,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="35"/>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2026,9 +2027,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35"/>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="16" t="s">
         <v>58</v>
       </c>
@@ -2045,9 +2046,9 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34" t="s">
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2066,9 +2067,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -2085,9 +2086,9 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
@@ -2104,9 +2105,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
@@ -2123,9 +2124,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34"/>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
@@ -2142,9 +2143,9 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="33"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2161,11 +2162,11 @@
         <v>765</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2184,9 +2185,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8" t="s">
         <v>79</v>
       </c>
@@ -2201,9 +2202,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="33"/>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
@@ -2220,9 +2221,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="33"/>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
@@ -2239,9 +2240,9 @@
         <v>873</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="33"/>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
@@ -2256,9 +2257,9 @@
         <v>968</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="33"/>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="33"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8" t="s">
         <v>85</v>
       </c>
@@ -2275,9 +2276,9 @@
         <v>871</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -2296,9 +2297,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="33"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="14" t="s">
         <v>90</v>
       </c>
@@ -2315,9 +2316,9 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="14" t="s">
         <v>92</v>
       </c>
@@ -2334,9 +2335,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="14" t="s">
         <v>94</v>
       </c>
@@ -2353,9 +2354,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="14" t="s">
         <v>96</v>
       </c>
@@ -2370,9 +2371,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="13" t="s">
         <v>97</v>
       </c>
@@ -2384,631 +2385,768 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="17"/>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
       <c r="G51" s="27"/>
     </row>
-    <row r="52" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="5"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="5"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="5"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="5"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="5"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="5"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="5"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="5"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="5"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="5"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="5"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="5"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="5"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="5"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="5"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="5"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="5"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="5"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="5"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="5"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="5"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="5"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" s="5"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" s="5"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="5"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="5"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="5"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="5"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="5"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="5"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="5"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="5"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="5"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="5"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="5"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F100" s="5"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F101" s="5"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F102" s="5"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F103" s="5"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F104" s="5"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F105" s="5"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F106" s="5"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F107" s="5"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F108" s="5"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F109" s="5"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F110" s="5"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F111" s="5"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F112" s="5"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F113" s="5"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F114" s="5"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F115" s="5"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F116" s="5"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F117" s="5"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F118" s="5"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F119" s="5"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F120" s="5"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F121" s="5"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F122" s="5"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F123" s="5"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F124" s="5"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F125" s="5"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F126" s="5"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F127" s="5"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F128" s="5"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F129" s="5"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F130" s="5"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F131" s="5"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F132" s="5"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F133" s="5"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F134" s="5"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F135" s="5"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F136" s="5"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F137" s="5"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F138" s="5"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F139" s="5"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F140" s="5"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F141" s="5"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F142" s="5"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F143" s="5"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F144" s="5"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F145" s="5"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F146" s="5"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F147" s="5"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F148" s="5"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="5"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F150" s="5"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F151" s="5"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F152" s="5"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F153" s="5"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F154" s="5"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F155" s="5"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F156" s="5"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F157" s="5"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F158" s="5"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F159" s="5"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F160" s="5"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F161" s="5"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F162" s="5"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F163" s="5"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F164" s="5"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F165" s="5"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F166" s="5"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F167" s="5"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F168" s="5"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F169" s="5"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F170" s="5"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F171" s="5"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F172" s="5"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F173" s="5"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="5"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F175" s="5"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F176" s="5"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F177" s="5"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F178" s="5"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F179" s="5"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F180" s="5"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F181" s="5"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F182" s="5"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F183" s="5"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F184" s="5"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F185" s="5"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F186" s="5"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F187" s="5"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F188" s="5"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F189" s="5"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F190" s="5"/>
       <c r="G190" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A32:A43"/>
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120BFA4-FEE8-E045-9728-528595AB1357}">
+  <dimension ref="A2:A35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>